--- a/Q3Da.xlsx
+++ b/Q3Da.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TEG-NAS\TEG_Home\H_drive_copy\My Papers\PBI Optimization 2025\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ED2109-6B48-4316-BB3F-9F78F79EF676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAB26C4-49B5-402E-A414-59F0ABBAFBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="435" windowWidth="42210" windowHeight="30690" xr2:uid="{3222188A-DE0C-4728-A84D-656DCA81D6A1}"/>
+    <workbookView xWindow="8895" yWindow="420" windowWidth="45315" windowHeight="30690" xr2:uid="{3222188A-DE0C-4728-A84D-656DCA81D6A1}"/>
   </bookViews>
   <sheets>
     <sheet name="M-optim" sheetId="1" r:id="rId1"/>
@@ -6254,7 +6254,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="2000" b="0" baseline="0">
+                  <a:rPr lang="en-AU" sz="2000" b="0" i="1" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -6427,8 +6427,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.14062020824641985"/>
-              <c:y val="2.5261277704328563E-2"/>
+              <c:x val="9.4853612359815778E-2"/>
+              <c:y val="3.1204814108489038E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6460,7 +6460,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7531,7 +7531,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9423,7 +9423,7 @@
   <dimension ref="A1:AL218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14522,6 +14522,7 @@
       <c r="A62" s="33" t="s">
         <v>75</v>
       </c>
+      <c r="B62" s="11"/>
       <c r="C62" s="2">
         <f t="shared" si="5"/>
         <v>6200000</v>
@@ -26623,8 +26624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ED4FF1-CF92-468F-B806-F14E8AE58C1E}">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29390,7 +29391,7 @@
       <c r="A31" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="17"/>
       <c r="D31" s="21">
         <v>38</v>
